--- a/data/trans_camb/P42-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P42-Clase-trans_camb.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.282859706041418</v>
+        <v>2.111635456793777</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5836261056578652</v>
+        <v>0.498761033566048</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.580820525765824</v>
+        <v>-4.918779115652724</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.19166728301203</v>
+        <v>10.32417380407146</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.845471500067204</v>
+        <v>8.764144720484229</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.46941175008589</v>
+        <v>4.130298861125286</v>
       </c>
     </row>
     <row r="7">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.02507292375859973</v>
+        <v>0.02306062516458665</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.00633974912464682</v>
+        <v>0.005497390519222956</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.04974935697395718</v>
+        <v>-0.05342277002744433</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1175953303568369</v>
+        <v>0.1186170569864447</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1019730423942968</v>
+        <v>0.1003306186937435</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.0507140872808831</v>
+        <v>0.0471087595224936</v>
       </c>
     </row>
     <row r="10">
@@ -696,7 +696,7 @@
         <v>10.37507321049159</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5.259405418460783</v>
+        <v>5.259405418460794</v>
       </c>
     </row>
     <row r="11">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.391980029851258</v>
+        <v>4.291765286189064</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.505934649152357</v>
+        <v>6.214608889359758</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.485603770053855</v>
+        <v>-0.04178583919654082</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>13.24937867942088</v>
+        <v>13.16142568334209</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>14.67261073659458</v>
+        <v>14.60659233186423</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.28229128954458</v>
+        <v>9.947564701159363</v>
       </c>
     </row>
     <row r="13">
@@ -747,7 +747,7 @@
         <v>0.1214397005341017</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.06156107104472629</v>
+        <v>0.06156107104472643</v>
       </c>
     </row>
     <row r="14">
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.05027288783835625</v>
+        <v>0.04854845051515052</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.07363847887557011</v>
+        <v>0.06987597579870777</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.004892537607973211</v>
+        <v>0.0003696044458611673</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1604431855579709</v>
+        <v>0.1598551440636075</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1792694361601003</v>
+        <v>0.176517832372716</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1231529335530212</v>
+        <v>0.1209632753498041</v>
       </c>
     </row>
     <row r="16">
@@ -802,7 +802,7 @@
         <v>9.582483341390057</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1.049648513018953</v>
+        <v>1.049648513018941</v>
       </c>
     </row>
     <row r="17">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.035712777602422</v>
+        <v>1.906850537847599</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.034873198654411</v>
+        <v>3.259093774519552</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.181511711949392</v>
+        <v>-7.071081954217724</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.66540992268084</v>
+        <v>14.87022647848029</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.01522244520179</v>
+        <v>16.68257273970147</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.645236457193723</v>
+        <v>8.625655172477117</v>
       </c>
     </row>
     <row r="19">
@@ -853,7 +853,7 @@
         <v>0.113984439283386</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.01248565668612468</v>
+        <v>0.01248565668612455</v>
       </c>
     </row>
     <row r="20">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.02241619616980254</v>
+        <v>0.02185295070345602</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.03401351731281616</v>
+        <v>0.03697937497601898</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.08265059511789989</v>
+        <v>-0.08094417669989806</v>
       </c>
     </row>
     <row r="21">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1971434567419042</v>
+        <v>0.1895670435905732</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2167951721036104</v>
+        <v>0.211395544549107</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1085168699732741</v>
+        <v>0.1084835763733596</v>
       </c>
     </row>
     <row r="22">
@@ -908,7 +908,7 @@
         <v>10.11487568165097</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7.997832186213428</v>
+        <v>7.997832186213449</v>
       </c>
     </row>
     <row r="23">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>5.82825743030354</v>
+        <v>5.715092662223334</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>5.996693680872538</v>
+        <v>6.549828402609986</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.25017470242086</v>
+        <v>4.361851921386856</v>
       </c>
     </row>
     <row r="24">
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.45052176382877</v>
+        <v>13.51062829454539</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>13.77088199457628</v>
+        <v>13.97753657426051</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12.01033975869044</v>
+        <v>12.15014590911599</v>
       </c>
     </row>
     <row r="25">
@@ -959,7 +959,7 @@
         <v>0.1263678071575162</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.09991902492870097</v>
+        <v>0.09991902492870125</v>
       </c>
     </row>
     <row r="26">
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.06894000635497846</v>
+        <v>0.06949716181869194</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.0721964083592487</v>
+        <v>0.07999080573487043</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.05006171682829587</v>
+        <v>0.05317219669958967</v>
       </c>
     </row>
     <row r="27">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1729736779074975</v>
+        <v>0.1753590186601339</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1772047890811556</v>
+        <v>0.1824361920073793</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1523243306721208</v>
+        <v>0.158324012772662</v>
       </c>
     </row>
     <row r="28">
@@ -1025,13 +1025,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.001846789837182281</v>
+        <v>-0.3782566554818634</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.4102224999047521</v>
+        <v>-0.8578498929229024</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.069822126679273</v>
+        <v>-3.453518548301123</v>
       </c>
     </row>
     <row r="30">
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>7.920415792157358</v>
+        <v>7.728493696295109</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.546958081185492</v>
+        <v>7.273049930019747</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.465346849501607</v>
+        <v>4.482601307695906</v>
       </c>
     </row>
     <row r="31">
@@ -1076,13 +1076,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.0007077500545169843</v>
+        <v>-0.004370498333387588</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.004770678792219591</v>
+        <v>-0.009927578751095581</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.04635824448049727</v>
+        <v>-0.03966113299108428</v>
       </c>
     </row>
     <row r="33">
@@ -1093,13 +1093,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.09765489431490196</v>
+        <v>0.09517855768938921</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.09274714391160918</v>
+        <v>0.08892465686148723</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.05412615942596413</v>
+        <v>0.05445123058047117</v>
       </c>
     </row>
     <row r="34">
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>4.662517548236332</v>
+        <v>4.289252839334531</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>3.487294642653269</v>
+        <v>3.286535324321906</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.371226550592708</v>
+        <v>-2.775828893404283</v>
       </c>
     </row>
     <row r="36">
@@ -1148,13 +1148,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>11.48644843082085</v>
+        <v>11.36014661826356</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>10.66480206788407</v>
+        <v>10.43193073588454</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6.71236296195402</v>
+        <v>6.906839280265867</v>
       </c>
     </row>
     <row r="37">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.06373594327676352</v>
+        <v>0.05894197709855695</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.04692190898527714</v>
+        <v>0.04600496365785903</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.0328706474400599</v>
+        <v>-0.03872667671305335</v>
       </c>
     </row>
     <row r="39">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.167417020012476</v>
+        <v>0.1655741427300674</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.1527085290469858</v>
+        <v>0.150600982005818</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.09618951105695527</v>
+        <v>0.09915741182341027</v>
       </c>
     </row>
     <row r="40">
@@ -1226,7 +1226,7 @@
         <v>8.064516718023906</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>4.824249395168279</v>
+        <v>4.824249395168268</v>
       </c>
     </row>
     <row r="41">
@@ -1237,13 +1237,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>6.191239149738263</v>
+        <v>6.418397015874129</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>6.272980372538409</v>
+        <v>6.297061742726238</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>2.60588455381927</v>
+        <v>2.651803750608924</v>
       </c>
     </row>
     <row r="42">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>9.915522084167714</v>
+        <v>9.981542861003621</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>9.954331678884293</v>
+        <v>9.952855066248308</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>6.632924697062236</v>
+        <v>6.825973624249343</v>
       </c>
     </row>
     <row r="43">
@@ -1277,7 +1277,7 @@
         <v>0.101948469301879</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.06098627587549178</v>
+        <v>0.06098627587549164</v>
       </c>
     </row>
     <row r="44">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.07751235694536482</v>
+        <v>0.08028650268004851</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.07847790374994057</v>
+        <v>0.07830911057299582</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.03278294360700612</v>
+        <v>0.03226665570904647</v>
       </c>
     </row>
     <row r="45">
@@ -1305,13 +1305,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1272952027838922</v>
+        <v>0.1288070908613849</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1280058404408265</v>
+        <v>0.1275538718868306</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.08508498046951775</v>
+        <v>0.08679964911536596</v>
       </c>
     </row>
     <row r="46">
